--- a/Data_frame/balancos_definitivos/CORR3.xlsx
+++ b/Data_frame/balancos_definitivos/CORR3.xlsx
@@ -16909,30 +16909,32 @@
         <v>242</v>
       </c>
       <c r="AI57" t="n">
+        <v>242</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>448</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AK57" t="n">
         <v>234</v>
       </c>
-      <c r="AK57" t="n">
+      <c r="AL57" t="n">
         <v>229</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AM57" t="n">
         <v>239</v>
       </c>
-      <c r="AM57" t="n">
+      <c r="AN57" t="n">
         <v>496</v>
       </c>
-      <c r="AN57" t="n">
+      <c r="AO57" t="n">
         <v>3130</v>
       </c>
-      <c r="AO57" t="n">
+      <c r="AP57" t="n">
         <v>4993</v>
       </c>
-      <c r="AP57" t="n">
+      <c r="AQ57" t="n">
         <v>3711</v>
       </c>
-      <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
       <c r="AT57" t="inlineStr"/>
@@ -17090,30 +17092,32 @@
         <v>-9</v>
       </c>
       <c r="AI58" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>-27</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>-8</v>
       </c>
       <c r="AK58" t="n">
         <v>-8</v>
       </c>
       <c r="AL58" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AM58" t="n">
         <v>-9</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AN58" t="n">
         <v>-27</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AO58" t="n">
         <v>-114</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AP58" t="n">
         <v>-182</v>
       </c>
-      <c r="AP58" t="n">
+      <c r="AQ58" t="n">
         <v>-132</v>
       </c>
-      <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
       <c r="AT58" t="inlineStr"/>
@@ -17271,34 +17275,34 @@
         <v>233</v>
       </c>
       <c r="AI59" t="n">
+        <v>233</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>421</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AK59" t="n">
         <v>226</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AL59" t="n">
         <v>221</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>230</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AN59" t="n">
         <v>469</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AO59" t="n">
         <v>3016</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AP59" t="n">
         <v>4811</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AQ59" t="n">
         <v>3579</v>
       </c>
-      <c r="AQ59" t="n">
+      <c r="AR59" t="n">
         <v>6207</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>751</v>
       </c>
       <c r="AS59" t="n">
         <v>751</v>
@@ -17427,28 +17431,28 @@
         <v>414</v>
       </c>
       <c r="CI59" t="n">
+        <v>122</v>
+      </c>
+      <c r="CJ59" t="n">
         <v>117</v>
       </c>
-      <c r="CJ59" t="n">
+      <c r="CK59" t="n">
         <v>1985</v>
       </c>
-      <c r="CK59" t="n">
+      <c r="CL59" t="n">
         <v>109</v>
       </c>
-      <c r="CL59" t="n">
+      <c r="CM59" t="n">
         <v>84</v>
       </c>
-      <c r="CM59" t="n">
+      <c r="CN59" t="n">
         <v>82</v>
       </c>
-      <c r="CN59" t="n">
+      <c r="CO59" t="n">
         <v>83</v>
       </c>
-      <c r="CO59" t="n">
+      <c r="CP59" t="n">
         <v>85</v>
-      </c>
-      <c r="CP59" t="n">
-        <v>83</v>
       </c>
       <c r="CQ59" t="n">
         <v>83</v>
@@ -17570,11 +17574,11 @@
         <v>0</v>
       </c>
       <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
         <v>-24</v>
       </c>
-      <c r="AN60" t="n">
-        <v>0</v>
-      </c>
       <c r="AO60" t="n">
         <v>0</v>
       </c>
@@ -17582,10 +17586,10 @@
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" t="n">
         <v>-822</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>0</v>
       </c>
       <c r="AS60" t="n">
         <v>0</v>
@@ -17717,10 +17721,10 @@
         <v>0</v>
       </c>
       <c r="CJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK60" t="n">
         <v>-9</v>
-      </c>
-      <c r="CK60" t="n">
-        <v>0</v>
       </c>
       <c r="CL60" t="n">
         <v>0</v>
@@ -17845,34 +17849,34 @@
         <v>233</v>
       </c>
       <c r="AI61" t="n">
+        <v>233</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>421</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AK61" t="n">
         <v>226</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AL61" t="n">
         <v>221</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
         <v>230</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AN61" t="n">
         <v>445</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AO61" t="n">
         <v>3016</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AP61" t="n">
         <v>4811</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AQ61" t="n">
         <v>3579</v>
       </c>
-      <c r="AQ61" t="n">
+      <c r="AR61" t="n">
         <v>5385</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>751</v>
       </c>
       <c r="AS61" t="n">
         <v>751</v>
@@ -18001,28 +18005,28 @@
         <v>326</v>
       </c>
       <c r="CI61" t="n">
+        <v>122</v>
+      </c>
+      <c r="CJ61" t="n">
         <v>117</v>
       </c>
-      <c r="CJ61" t="n">
+      <c r="CK61" t="n">
         <v>1976</v>
       </c>
-      <c r="CK61" t="n">
+      <c r="CL61" t="n">
         <v>109</v>
       </c>
-      <c r="CL61" t="n">
+      <c r="CM61" t="n">
         <v>84</v>
       </c>
-      <c r="CM61" t="n">
+      <c r="CN61" t="n">
         <v>82</v>
       </c>
-      <c r="CN61" t="n">
+      <c r="CO61" t="n">
         <v>83</v>
       </c>
-      <c r="CO61" t="n">
+      <c r="CP61" t="n">
         <v>85</v>
-      </c>
-      <c r="CP61" t="n">
-        <v>83</v>
       </c>
       <c r="CQ61" t="n">
         <v>83</v>
@@ -18419,34 +18423,34 @@
         <v>-656</v>
       </c>
       <c r="AI63" t="n">
+        <v>-663</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>-555</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AK63" t="n">
         <v>-553</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AL63" t="n">
         <v>-370</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AM63" t="n">
         <v>-432</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AN63" t="n">
         <v>-940</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AO63" t="n">
         <v>-1188</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AP63" t="n">
         <v>-1300</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AQ63" t="n">
         <v>-2461</v>
       </c>
-      <c r="AQ63" t="n">
+      <c r="AR63" t="n">
         <v>513</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-1349</v>
       </c>
       <c r="AS63" t="n">
         <v>-1349</v>
@@ -18575,28 +18579,28 @@
         <v>-1024</v>
       </c>
       <c r="CI63" t="n">
+        <v>-761</v>
+      </c>
+      <c r="CJ63" t="n">
         <v>-937</v>
       </c>
-      <c r="CJ63" t="n">
+      <c r="CK63" t="n">
         <v>-1419</v>
       </c>
-      <c r="CK63" t="n">
+      <c r="CL63" t="n">
         <v>-852</v>
       </c>
-      <c r="CL63" t="n">
+      <c r="CM63" t="n">
         <v>-689</v>
       </c>
-      <c r="CM63" t="n">
+      <c r="CN63" t="n">
         <v>-876</v>
       </c>
-      <c r="CN63" t="n">
+      <c r="CO63" t="n">
         <v>-1032</v>
       </c>
-      <c r="CO63" t="n">
+      <c r="CP63" t="n">
         <v>-1090</v>
-      </c>
-      <c r="CP63" t="n">
-        <v>-857</v>
       </c>
       <c r="CQ63" t="n">
         <v>-857</v>
@@ -18650,9 +18654,7 @@
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="n">
         <v>0</v>
       </c>
@@ -18792,10 +18794,10 @@
         <v>0</v>
       </c>
       <c r="CM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN64" t="n">
         <v>12055</v>
-      </c>
-      <c r="CN64" t="n">
-        <v>0</v>
       </c>
       <c r="CO64" t="n">
         <v>0</v>
@@ -18935,10 +18937,10 @@
         <v>0</v>
       </c>
       <c r="AQ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR65" t="n">
         <v>426</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>0</v>
       </c>
       <c r="AS65" t="n">
         <v>0</v>
@@ -19088,7 +19090,7 @@
         <v>0</v>
       </c>
       <c r="CP65" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CQ65" t="n">
         <v>7</v>
@@ -19222,10 +19224,10 @@
         <v>0</v>
       </c>
       <c r="AQ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR66" t="n">
         <v>-866</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>-56</v>
       </c>
       <c r="AS66" t="n">
         <v>-56</v>
@@ -19357,22 +19359,22 @@
         <v>0</v>
       </c>
       <c r="CJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK66" t="n">
         <v>-3</v>
       </c>
-      <c r="CK66" t="n">
+      <c r="CL66" t="n">
         <v>3</v>
       </c>
-      <c r="CL66" t="n">
-        <v>0</v>
-      </c>
       <c r="CM66" t="n">
         <v>0</v>
       </c>
       <c r="CN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO66" t="n">
         <v>-12</v>
-      </c>
-      <c r="CO66" t="n">
-        <v>0</v>
       </c>
       <c r="CP66" t="n">
         <v>0</v>
@@ -19485,34 +19487,34 @@
         <v>-1</v>
       </c>
       <c r="AI67" t="n">
+        <v>-34</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>69</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AK67" t="n">
         <v>-56</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AL67" t="n">
         <v>-54</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AM67" t="n">
         <v>-57</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AN67" t="n">
         <v>167</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AO67" t="n">
         <v>19</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AP67" t="n">
         <v>-44</v>
       </c>
-      <c r="AP67" t="n">
+      <c r="AQ67" t="n">
         <v>379</v>
       </c>
-      <c r="AQ67" t="n">
+      <c r="AR67" t="n">
         <v>-354</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
       </c>
       <c r="AS67" t="n">
         <v>0</v>
@@ -19772,34 +19774,34 @@
         <v>-8</v>
       </c>
       <c r="AI68" t="n">
+        <v>-14</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>-299</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AK68" t="n">
         <v>-16</v>
       </c>
-      <c r="AK68" t="n">
+      <c r="AL68" t="n">
         <v>-10</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AM68" t="n">
         <v>-11</v>
       </c>
-      <c r="AM68" t="n">
+      <c r="AN68" t="n">
         <v>-304</v>
       </c>
-      <c r="AN68" t="n">
+      <c r="AO68" t="n">
         <v>1</v>
       </c>
-      <c r="AO68" t="n">
+      <c r="AP68" t="n">
         <v>41</v>
       </c>
-      <c r="AP68" t="n">
+      <c r="AQ68" t="n">
         <v>128</v>
       </c>
-      <c r="AQ68" t="n">
+      <c r="AR68" t="n">
         <v>-170</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>237</v>
       </c>
       <c r="AS68" t="n">
         <v>237</v>
@@ -19928,28 +19930,28 @@
         <v>604</v>
       </c>
       <c r="CI68" t="n">
+        <v>41</v>
+      </c>
+      <c r="CJ68" t="n">
         <v>427</v>
       </c>
-      <c r="CJ68" t="n">
+      <c r="CK68" t="n">
         <v>62</v>
       </c>
-      <c r="CK68" t="n">
+      <c r="CL68" t="n">
         <v>867</v>
       </c>
-      <c r="CL68" t="n">
+      <c r="CM68" t="n">
         <v>96</v>
       </c>
-      <c r="CM68" t="n">
+      <c r="CN68" t="n">
         <v>444</v>
       </c>
-      <c r="CN68" t="n">
+      <c r="CO68" t="n">
         <v>215</v>
       </c>
-      <c r="CO68" t="n">
+      <c r="CP68" t="n">
         <v>441</v>
-      </c>
-      <c r="CP68" t="n">
-        <v>131</v>
       </c>
       <c r="CQ68" t="n">
         <v>131</v>
@@ -20059,11 +20061,11 @@
         <v>0</v>
       </c>
       <c r="AI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>142</v>
       </c>
-      <c r="AJ69" t="n">
-        <v>0</v>
-      </c>
       <c r="AK69" t="n">
         <v>0</v>
       </c>
@@ -20071,22 +20073,22 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
         <v>83</v>
       </c>
-      <c r="AN69" t="n">
+      <c r="AO69" t="n">
         <v>9</v>
       </c>
-      <c r="AO69" t="n">
+      <c r="AP69" t="n">
         <v>58</v>
       </c>
-      <c r="AP69" t="n">
+      <c r="AQ69" t="n">
         <v>147</v>
       </c>
-      <c r="AQ69" t="n">
+      <c r="AR69" t="n">
         <v>-214</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>296</v>
       </c>
       <c r="AS69" t="n">
         <v>296</v>
@@ -20215,28 +20217,28 @@
         <v>605</v>
       </c>
       <c r="CI69" t="n">
+        <v>43</v>
+      </c>
+      <c r="CJ69" t="n">
         <v>426</v>
       </c>
-      <c r="CJ69" t="n">
+      <c r="CK69" t="n">
         <v>81</v>
       </c>
-      <c r="CK69" t="n">
+      <c r="CL69" t="n">
         <v>871</v>
       </c>
-      <c r="CL69" t="n">
+      <c r="CM69" t="n">
         <v>103</v>
       </c>
-      <c r="CM69" t="n">
+      <c r="CN69" t="n">
         <v>533</v>
       </c>
-      <c r="CN69" t="n">
+      <c r="CO69" t="n">
         <v>218</v>
       </c>
-      <c r="CO69" t="n">
+      <c r="CP69" t="n">
         <v>441</v>
-      </c>
-      <c r="CP69" t="n">
-        <v>132</v>
       </c>
       <c r="CQ69" t="n">
         <v>132</v>
@@ -20346,34 +20348,34 @@
         <v>-8</v>
       </c>
       <c r="AI70" t="n">
+        <v>-14</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>-441</v>
       </c>
-      <c r="AJ70" t="n">
+      <c r="AK70" t="n">
         <v>-16</v>
       </c>
-      <c r="AK70" t="n">
+      <c r="AL70" t="n">
         <v>-10</v>
       </c>
-      <c r="AL70" t="n">
+      <c r="AM70" t="n">
         <v>-11</v>
       </c>
-      <c r="AM70" t="n">
+      <c r="AN70" t="n">
         <v>-387</v>
       </c>
-      <c r="AN70" t="n">
+      <c r="AO70" t="n">
         <v>-8</v>
       </c>
-      <c r="AO70" t="n">
+      <c r="AP70" t="n">
         <v>-17</v>
       </c>
-      <c r="AP70" t="n">
+      <c r="AQ70" t="n">
         <v>-19</v>
       </c>
-      <c r="AQ70" t="n">
+      <c r="AR70" t="n">
         <v>44</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>-59</v>
       </c>
       <c r="AS70" t="n">
         <v>-59</v>
@@ -20502,28 +20504,28 @@
         <v>-1</v>
       </c>
       <c r="CI70" t="n">
+        <v>-2</v>
+      </c>
+      <c r="CJ70" t="n">
         <v>1</v>
       </c>
-      <c r="CJ70" t="n">
+      <c r="CK70" t="n">
         <v>-19</v>
       </c>
-      <c r="CK70" t="n">
+      <c r="CL70" t="n">
         <v>-4</v>
       </c>
-      <c r="CL70" t="n">
+      <c r="CM70" t="n">
         <v>-7</v>
       </c>
-      <c r="CM70" t="n">
+      <c r="CN70" t="n">
         <v>-89</v>
       </c>
-      <c r="CN70" t="n">
+      <c r="CO70" t="n">
         <v>-3</v>
       </c>
-      <c r="CO70" t="n">
-        <v>0</v>
-      </c>
       <c r="CP70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CQ70" t="n">
         <v>-1</v>
@@ -20633,30 +20635,32 @@
         <v>141</v>
       </c>
       <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>39</v>
       </c>
-      <c r="AJ71" t="n">
+      <c r="AK71" t="n">
         <v>25</v>
       </c>
-      <c r="AK71" t="n">
+      <c r="AL71" t="n">
         <v>27</v>
       </c>
-      <c r="AL71" t="n">
+      <c r="AM71" t="n">
         <v>17</v>
       </c>
-      <c r="AM71" t="n">
+      <c r="AN71" t="n">
         <v>-7</v>
       </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
       <c r="AO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="n">
         <v>-537</v>
       </c>
-      <c r="AP71" t="n">
+      <c r="AQ71" t="n">
         <v>537</v>
       </c>
-      <c r="AQ71" t="inlineStr"/>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
       <c r="AT71" t="inlineStr"/>
@@ -20814,30 +20818,32 @@
         <v>141</v>
       </c>
       <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>39</v>
       </c>
-      <c r="AJ72" t="n">
+      <c r="AK72" t="n">
         <v>25</v>
       </c>
-      <c r="AK72" t="n">
+      <c r="AL72" t="n">
         <v>27</v>
       </c>
-      <c r="AL72" t="n">
+      <c r="AM72" t="n">
         <v>17</v>
       </c>
-      <c r="AM72" t="n">
+      <c r="AN72" t="n">
         <v>-7</v>
       </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
       <c r="AO72" t="n">
         <v>0</v>
       </c>
       <c r="AP72" t="n">
         <v>0</v>
       </c>
-      <c r="AQ72" t="inlineStr"/>
+      <c r="AQ72" t="n">
+        <v>0</v>
+      </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
       <c r="AT72" t="inlineStr"/>
@@ -21013,12 +21019,14 @@
         <v>0</v>
       </c>
       <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" t="n">
         <v>-537</v>
       </c>
-      <c r="AP73" t="n">
+      <c r="AQ73" t="n">
         <v>537</v>
       </c>
-      <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
@@ -21176,34 +21184,34 @@
         <v>-291</v>
       </c>
       <c r="AI74" t="n">
+        <v>-478</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>-325</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AK74" t="n">
         <v>-374</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AL74" t="n">
         <v>-186</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>-253</v>
       </c>
-      <c r="AM74" t="n">
+      <c r="AN74" t="n">
         <v>-639</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AO74" t="n">
         <v>1848</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AP74" t="n">
         <v>2971</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AQ74" t="n">
         <v>2162</v>
       </c>
-      <c r="AQ74" t="n">
+      <c r="AR74" t="n">
         <v>4934</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>-417</v>
       </c>
       <c r="AS74" t="n">
         <v>-417</v>
@@ -21332,28 +21340,28 @@
         <v>-94</v>
       </c>
       <c r="CI74" t="n">
+        <v>-598</v>
+      </c>
+      <c r="CJ74" t="n">
         <v>-393</v>
       </c>
-      <c r="CJ74" t="n">
+      <c r="CK74" t="n">
         <v>616</v>
       </c>
-      <c r="CK74" t="n">
+      <c r="CL74" t="n">
         <v>127</v>
       </c>
-      <c r="CL74" t="n">
+      <c r="CM74" t="n">
         <v>-509</v>
       </c>
-      <c r="CM74" t="n">
+      <c r="CN74" t="n">
         <v>11705</v>
       </c>
-      <c r="CN74" t="n">
+      <c r="CO74" t="n">
         <v>-746</v>
       </c>
-      <c r="CO74" t="n">
+      <c r="CP74" t="n">
         <v>-564</v>
-      </c>
-      <c r="CP74" t="n">
-        <v>-636</v>
       </c>
       <c r="CQ74" t="n">
         <v>-636</v>
@@ -21463,34 +21471,34 @@
         <v>-20</v>
       </c>
       <c r="AI75" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>-21</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>-19</v>
       </c>
       <c r="AK75" t="n">
         <v>-19</v>
       </c>
       <c r="AL75" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AM75" t="n">
         <v>-20</v>
       </c>
-      <c r="AM75" t="n">
+      <c r="AN75" t="n">
         <v>-30</v>
       </c>
-      <c r="AN75" t="n">
+      <c r="AO75" t="n">
         <v>-109</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
         <v>-163</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AQ75" t="n">
         <v>-140</v>
       </c>
-      <c r="AQ75" t="n">
+      <c r="AR75" t="n">
         <v>412</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>-32</v>
       </c>
       <c r="AS75" t="n">
         <v>-32</v>
@@ -21619,28 +21627,28 @@
         <v>-191</v>
       </c>
       <c r="CI75" t="n">
+        <v>-21</v>
+      </c>
+      <c r="CJ75" t="n">
         <v>-145</v>
       </c>
-      <c r="CJ75" t="n">
+      <c r="CK75" t="n">
         <v>-43</v>
       </c>
-      <c r="CK75" t="n">
+      <c r="CL75" t="n">
         <v>-297</v>
       </c>
-      <c r="CL75" t="n">
+      <c r="CM75" t="n">
         <v>-32</v>
       </c>
-      <c r="CM75" t="n">
+      <c r="CN75" t="n">
         <v>-2331</v>
       </c>
-      <c r="CN75" t="n">
+      <c r="CO75" t="n">
         <v>-68</v>
       </c>
-      <c r="CO75" t="n">
+      <c r="CP75" t="n">
         <v>-188</v>
-      </c>
-      <c r="CP75" t="n">
-        <v>-42</v>
       </c>
       <c r="CQ75" t="n">
         <v>-42</v>
@@ -22060,7 +22068,9 @@
       <c r="AP77" t="n">
         <v>0</v>
       </c>
-      <c r="AQ77" t="inlineStr"/>
+      <c r="AQ77" t="n">
+        <v>0</v>
+      </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
       <c r="AT77" t="inlineStr"/>
@@ -22241,7 +22251,9 @@
       <c r="AP78" t="n">
         <v>0</v>
       </c>
-      <c r="AQ78" t="inlineStr"/>
+      <c r="AQ78" t="n">
+        <v>0</v>
+      </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
       <c r="AT78" t="inlineStr"/>
@@ -22377,9 +22389,7 @@
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
       <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="n">
         <v>0</v>
       </c>
@@ -22638,34 +22648,34 @@
         <v>-311</v>
       </c>
       <c r="AI80" t="n">
+        <v>-498</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>-346</v>
       </c>
-      <c r="AJ80" t="n">
+      <c r="AK80" t="n">
         <v>-393</v>
       </c>
-      <c r="AK80" t="n">
+      <c r="AL80" t="n">
         <v>-205</v>
       </c>
-      <c r="AL80" t="n">
+      <c r="AM80" t="n">
         <v>-273</v>
       </c>
-      <c r="AM80" t="n">
+      <c r="AN80" t="n">
         <v>-669</v>
       </c>
-      <c r="AN80" t="n">
+      <c r="AO80" t="n">
         <v>1739</v>
       </c>
-      <c r="AO80" t="n">
+      <c r="AP80" t="n">
         <v>2808</v>
       </c>
-      <c r="AP80" t="n">
+      <c r="AQ80" t="n">
         <v>2022</v>
       </c>
-      <c r="AQ80" t="n">
+      <c r="AR80" t="n">
         <v>4104</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>-449</v>
       </c>
       <c r="AS80" t="n">
         <v>-449</v>
@@ -22794,28 +22804,28 @@
         <v>-285</v>
       </c>
       <c r="CI80" t="n">
+        <v>-619</v>
+      </c>
+      <c r="CJ80" t="n">
         <v>-538</v>
       </c>
-      <c r="CJ80" t="n">
+      <c r="CK80" t="n">
         <v>573</v>
       </c>
-      <c r="CK80" t="n">
+      <c r="CL80" t="n">
         <v>-170</v>
       </c>
-      <c r="CL80" t="n">
+      <c r="CM80" t="n">
         <v>-541</v>
       </c>
-      <c r="CM80" t="n">
+      <c r="CN80" t="n">
         <v>9374</v>
       </c>
-      <c r="CN80" t="n">
+      <c r="CO80" t="n">
         <v>-814</v>
       </c>
-      <c r="CO80" t="n">
+      <c r="CP80" t="n">
         <v>-752</v>
-      </c>
-      <c r="CP80" t="n">
-        <v>-678</v>
       </c>
       <c r="CQ80" t="n">
         <v>-678</v>
